--- a/DATA/IsoData/BARRIsoData.xlsx
+++ b/DATA/IsoData/BARRIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">3ed07a0e-5fa9-4459-8c8f-2f0b864b1866</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1da8d50b-2255-40ce-a522-2b968a0ad44e</t>
   </si>
   <si>
     <t xml:space="preserve">BARR.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173328Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0d4a69c-f680-4211-ac3b-a8fee9a58d09</t>
+    <t xml:space="preserve">20210112T150358Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15943fea-a536-44bb-852a-40a2cdd71e75</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BARR.20190628.1018</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000100319</t>
   </si>
   <si>
-    <t xml:space="preserve">1984591f-30f8-42e6-9eea-82739640d797</t>
+    <t xml:space="preserve">50f7b2ef-9414-495d-86bd-1cd68f482b77</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BARR.20190708.0933</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000100221</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173301Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a5ce0f3-0e3b-47c2-b56b-66ba5a333ef1</t>
+    <t xml:space="preserve">20210112T155800Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb8205ae-b017-4c35-a831-0d8816039368</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BARR.20190722.1413</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000027469</t>
   </si>
   <si>
-    <t xml:space="preserve">f95ac5ea-30e1-4038-9c4a-e9ec1bc70315</t>
+    <t xml:space="preserve">c0318485-3b6a-4ee6-b4b6-95097ce78c66</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BARR.20190805.1147</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000100226</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172958Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26d5571b-f9c7-432a-958f-c7f2dcd0c62a</t>
+    <t xml:space="preserve">20210112T155318Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5e7e58ce-5278-4ffe-af9e-01565550ea29</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BARR.20190820.1642</t>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">A00000100213</t>
   </si>
   <si>
-    <t xml:space="preserve">7f73eef5-f067-496c-a921-3308af179087</t>
+    <t xml:space="preserve">d2c17deb-e6d9-43c8-a357-3cf06c563055</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BARR.20191113.1139</t>
@@ -167,7 +173,7 @@
     <t xml:space="preserve">A00000101394</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164852Z</t>
+    <t xml:space="preserve">20210112T153521Z</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -559,23 +565,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43579.8486111111</v>
@@ -596,35 +605,38 @@
         <v>0.043</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43625.9520833333</v>
@@ -645,35 +657,38 @@
         <v>0.039</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43640.7625</v>
@@ -694,35 +709,38 @@
         <v>0.169</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43654.73125</v>
@@ -743,35 +761,38 @@
         <v>0.569</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43668.9256944444</v>
@@ -792,35 +813,38 @@
         <v>0.261</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43682.8243055556</v>
@@ -841,35 +865,38 @@
         <v>0.097</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43756.9180555556</v>
@@ -890,17 +917,20 @@
         <v>0.147</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
